--- a/LeetCode刷题记录簿.xlsx
+++ b/LeetCode刷题记录簿.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -62,7 +61,39 @@
     <t>94、144、145、589、590、剑9</t>
   </si>
   <si>
-    <t>429、718、1367、面4.10</t>
+    <r>
+      <t>429、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>718</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、1367、面4.10、300、435、646、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>452</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -70,12 +101,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,12 +116,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -98,8 +160,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,7 +178,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,33 +221,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,63 +237,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -237,13 +275,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,37 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,127 +437,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +466,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,22 +553,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,56 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -682,10 +720,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,198 +1048,198 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="31.1111111111111" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.4444444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.8888888888889" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.2222222222222" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.2222222222222" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>22</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <f t="shared" ref="C2:C7" si="0">DAY(B2)</f>
         <v>22</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f t="shared" ref="D2:D7" si="1">DAY(C2+1)</f>
         <v>23</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <f t="shared" ref="E2:E7" si="2">DAY(D2+7)</f>
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>23</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>24</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>25</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>26</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>27</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>29</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f t="shared" ref="C9:C11" si="3">DAY(B9)</f>
         <v>29</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f t="shared" ref="D9:D11" si="4">DAY(C9+1)</f>
         <v>30</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f t="shared" ref="E9:E11" si="5">DAY(D9+7)</f>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>30</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -1210,54 +1248,20 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f t="shared" si="5"/>
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="3" max="4" width="10.7777777777778"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:4">
-      <c r="C1" s="1">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="e">
-        <f>DAY(C2:C100)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="2" spans="3:3">
-      <c r="C2">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
